--- a/data/trans_media/IQ27-Habitat-trans_media.xlsx
+++ b/data/trans_media/IQ27-Habitat-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>25,94; 41,83</t>
+          <t>26,51; 41,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>32,05; 48,8</t>
+          <t>32,17; 49,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>24,75; 41,31</t>
+          <t>24,13; 41,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>24,57; 44,19</t>
+          <t>24,89; 44,13</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>32,33; 43,55</t>
+          <t>32,94; 44,3</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>28,73; 42,77</t>
+          <t>29,29; 42,4</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>25,13; 35,32</t>
+          <t>25,31; 35,36</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>28,62; 41,69</t>
+          <t>28,21; 41,53</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>31,08; 40,76</t>
+          <t>31,55; 40,93</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>32,09; 43,18</t>
+          <t>32,18; 43,3</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>26,48; 36,42</t>
+          <t>26,12; 35,13</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>28,99; 40,59</t>
+          <t>29,22; 40,37</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>33,2; 39,45</t>
+          <t>33,37; 39,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>27,87; 33,15</t>
+          <t>27,73; 32,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>28,78; 34,43</t>
+          <t>28,94; 34,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>34,8; 41,71</t>
+          <t>34,95; 41,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>27,83; 32,92</t>
+          <t>27,9; 33,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>27,33; 32,3</t>
+          <t>27,15; 32,14</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>28,33; 33,71</t>
+          <t>28,44; 33,91</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>31,28; 36,93</t>
+          <t>31,38; 37,1</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>31,54; 35,54</t>
+          <t>31,55; 35,8</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>28,22; 31,81</t>
+          <t>28,16; 31,71</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>29,73; 33,52</t>
+          <t>29,6; 33,72</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>34,05; 38,71</t>
+          <t>34,07; 38,85</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>31,81; 35,79</t>
+          <t>31,84; 35,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>28,64; 32,65</t>
+          <t>28,73; 32,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>28,75; 32,65</t>
+          <t>28,93; 32,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>35,77; 40,27</t>
+          <t>35,71; 40,59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>31,24; 35,41</t>
+          <t>31,29; 34,98</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>27,32; 31,11</t>
+          <t>27,19; 30,95</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>28,14; 31,76</t>
+          <t>28,16; 32,03</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>32,59; 37,12</t>
+          <t>32,53; 36,94</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>32,0; 34,82</t>
+          <t>31,88; 34,77</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>28,61; 31,28</t>
+          <t>28,66; 31,4</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>29,09; 31,83</t>
+          <t>29,07; 31,61</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>34,99; 38,16</t>
+          <t>34,85; 38,03</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>30,74; 36,08</t>
+          <t>30,91; 35,93</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>27,25; 31,71</t>
+          <t>27,22; 31,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>27,87; 32,15</t>
+          <t>28,29; 32,46</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>36,15; 43,96</t>
+          <t>36,08; 43,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>29,09; 33,51</t>
+          <t>29,03; 33,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>27,28; 31,6</t>
+          <t>27,39; 31,62</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>27,62; 31,3</t>
+          <t>27,53; 31,34</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>33,04; 40,2</t>
+          <t>33,04; 39,83</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>30,55; 34,05</t>
+          <t>30,63; 34,04</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>27,91; 31,07</t>
+          <t>27,87; 31,02</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>28,52; 31,29</t>
+          <t>28,42; 31,33</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>35,3; 40,4</t>
+          <t>35,25; 40,37</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>31,2; 35,9</t>
+          <t>31,22; 35,78</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>28,96; 33,04</t>
+          <t>28,76; 33,1</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>29,36; 33,38</t>
+          <t>29,13; 33,5</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>33,21; 38,08</t>
+          <t>33,2; 38,22</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>28,91; 32,57</t>
+          <t>29,02; 32,73</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>28,23; 32,67</t>
+          <t>28,0; 32,46</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>28,37; 32,25</t>
+          <t>27,99; 32,18</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>31,22; 36,05</t>
+          <t>31,37; 36,12</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>30,49; 33,59</t>
+          <t>30,62; 33,5</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>29,09; 32,17</t>
+          <t>29,22; 32,17</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>29,16; 32,19</t>
+          <t>29,26; 32,13</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>32,95; 36,32</t>
+          <t>33,06; 36,31</t>
         </is>
       </c>
     </row>
@@ -1424,7 +1424,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>32,8; 35,24</t>
+          <t>32,7; 35,1</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1434,52 +1434,52 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>29,85; 31,96</t>
+          <t>29,89; 32,04</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>36,16; 39,25</t>
+          <t>36,27; 39,32</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>30,66; 32,73</t>
+          <t>30,6; 32,74</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>28,77; 30,89</t>
+          <t>28,84; 31,02</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>29,15; 31,18</t>
+          <t>29,06; 31,08</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>33,3; 36,07</t>
+          <t>33,3; 36,05</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>32,01; 33,61</t>
+          <t>32,11; 33,69</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>29,5; 31,06</t>
+          <t>29,48; 31,06</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>29,77; 31,3</t>
+          <t>29,79; 31,24</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>35,14; 37,27</t>
+          <t>35,24; 37,27</t>
         </is>
       </c>
     </row>
